--- a/data/utils/excel_template_v0.01.xlsx
+++ b/data/utils/excel_template_v0.01.xlsx
@@ -5,20 +5,31 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkerri\Documents\My Projects\2. In Progress\Auxiliary\10. Traffic Regression Tool\Traffic-Regression-Tool\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkerri\Documents\My Projects\2. In Progress\Auxiliary\10. Traffic Regression Tool\Traffic-Regression-Tool\data\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B532ED72-F978-4E0C-9546-75DC15E5FCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C724F383-07F9-446A-BD04-2C12E9F10C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BasicSheet" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -52,7 +63,7 @@
     <numFmt numFmtId="166" formatCode="#,##0;[Red]\(#,##0\);\-"/>
     <numFmt numFmtId="167" formatCode="#,##0;\(#,##0\);\-"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -246,8 +257,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,8 +343,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0DF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -521,6 +545,15 @@
       <top style="thin">
         <color theme="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -653,10 +686,19 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="2" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="33">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1032,7 +1074,7 @@
   <dimension ref="B2:S40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1129,6 +1171,15 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D14" s="3"/>
+    </row>
     <row r="40" spans="2:19" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>0</v>

--- a/data/utils/excel_template_v0.01.xlsx
+++ b/data/utils/excel_template_v0.01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkerri\Documents\My Projects\2. In Progress\Auxiliary\10. Traffic Regression Tool\Traffic-Regression-Tool\data\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C724F383-07F9-446A-BD04-2C12E9F10C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC115C96-7FE1-4F8C-97BC-196E55D78D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -697,7 +697,7 @@
     <xf numFmtId="166" fontId="1" fillId="5" borderId="2" xfId="12">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="33">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="33" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
